--- a/tr_intihar_cinsiyet_erkek.xlsx
+++ b/tr_intihar_cinsiyet_erkek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365adessogroup-my.sharepoint.com/personal/safinaz_oksuz_adesso_com_tr/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365adessogroup-my.sharepoint.com/personal/safinaz_oksuz_adesso_com_tr/Documents/Documents/GitHub/muy665-bahar2024-takim-code_or_die-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_AD4DB114E441178AC67DF4152653CDF8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C59AD350-D0F1-479F-A751-6E8679FF7DFC}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_AD4DB114E441178AC67DF4152653CDF8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3825FC0E-E1B9-4B60-ABCA-16D415B4D3C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>yil</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>güneydogu anadolu</t>
+  </si>
+  <si>
+    <t>bati anadolu</t>
+  </si>
+  <si>
+    <t>ortadogu anadolu</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -440,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
